--- a/UR/Curran_report_analysis.xlsx
+++ b/UR/Curran_report_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\UR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619C268F-F640-40CF-9A3B-F15DACE6061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B594A6D-D079-4AF9-AE9A-A1BF4D6D13A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13180" yWindow="9930" windowWidth="22140" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13180" yWindow="3660" windowWidth="23730" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>the MR goes higher based on estimated 72 deaths / month, but not as steeply</t>
-  </si>
-  <si>
-    <t>Excess deaths from vaccine</t>
   </si>
   <si>
     <t xml:space="preserve">The excess deaths </t>
@@ -164,12 +161,15 @@
   <si>
     <t xml:space="preserve">The fact that the slope on the time series (row 3) goes UP is a HUGE red flag that the vaccine is killing people. </t>
   </si>
+  <si>
+    <t>MR observed / MR predicted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +181,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,8 +214,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,6 +232,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41F82B2-2E5E-3D6F-5C7A-2B72E7646B00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2520950" y="4775200"/>
+          <a:ext cx="7683500" cy="3124200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>if you aren't getting the description</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> above, here's another way to phrase it.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>Time series measures deaths since INJECTION.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>The data is only until Aug 2021. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>So what happens in month 0 is that is when you have the most deaths because that's when the greatest number of people are available to die. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>On an ABSOLUTE # of deaths per month basis, the numbers MUST (except for seasonality if elderly were injected at a low season) go monotonically DOWN because there are fewer people available to die. Even if the mix changes the next month and all the young people are eliminated (so the average age is older), the remaining old people will die at the same rate as before.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>So whenever you see a positive slope in a time series, that is a huge red flag.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>We never see anything like this for any other vaccine. The only exception is if you gave MOST of the shots BEFORE Winter</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,7 +637,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -671,43 +817,43 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <f>B5/B6-1</f>
-        <v>0</v>
+        <f>B5/B6</f>
+        <v>1</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:H7" si="2">C5/C6-1</f>
-        <v>0.79166666666666674</v>
+        <f t="shared" ref="C7:H7" si="2">C5/C6</f>
+        <v>1.7916666666666667</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>1.6250000000000004</v>
-      </c>
-      <c r="E7">
+        <v>2.6250000000000004</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>2.0972222222222219</v>
-      </c>
-      <c r="F7">
+        <v>3.0972222222222219</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>1.9722222222222223</v>
+        <v>2.9722222222222223</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>0.68055555555555558</v>
+        <v>1.6805555555555556</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>-0.30555555555555558</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="K8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -748,12 +894,12 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -763,31 +909,32 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>